--- a/biology/Zoologie/Flipper_(film,_1996)/Flipper_(film,_1996).xlsx
+++ b/biology/Zoologie/Flipper_(film,_1996)/Flipper_(film,_1996).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Flipper est un film américain réalisé par Alan Shapiro et sorti en 1996.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La mère de Sandy Ricks l'envoie passer l'été chez son oncle Porter dans la ville balnéaire de Coral Key. Sandy ne se plait pas chez Porter mais il fait une double rencontre : celle de Kim, une jolie blonde du coin, et d'un jeune dauphin qu'il surnomme Flipper. Mais le shérif annonce à Sandy qu'il ne peut pas garder le dauphin car il fait fuir les poissons, ce qui déplait aux pêcheurs locaux. Flipper se retrouve expulsé en mer. Kim raconte à Sandy que dans les eaux de l'ile rôde Scar, un requin-marteau très dangereux.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Flipper'
 Réalisation : Alan Shapiro
@@ -583,7 +599,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Paul Hogan (VF : Yves Rénier) : Porter Ricks
 Elijah Wood : Sandy Ricks
@@ -591,7 +609,7 @@
 Bill Kelley : Tommy
 Chelsea Field : Cathy
 Jason Fuchs : Marvin
-Jessica Wesson (VF : Chloé Berthier) [1]: Kim
+Jessica Wesson (VF : Chloé Berthier) : Kim
 Mal Jones : Russ
 Louis Seeger Crume : Mr. Dunnahy
 Isaac Hayes : Le shérif Buck Cowan</t>
